--- a/設計書/基本設計書書きなぐり.xlsx
+++ b/設計書/基本設計書書きなぐり.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ForDevelop\pleiades2022\work\DragonBattleRPG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ForDevelop\pleiades2022\work\DragonBattleRPG\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68EDDBD-BE55-4FDC-8FCC-8792634CFA3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F1B645-1914-4E71-A736-BA0AF76F8A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="機能" sheetId="3" r:id="rId1"/>
     <sheet name="状態異常" sheetId="4" r:id="rId2"/>
     <sheet name="ターン処理順" sheetId="6" r:id="rId3"/>
-    <sheet name="補助状態" sheetId="5" r:id="rId4"/>
-    <sheet name="キャラクター" sheetId="1" r:id="rId5"/>
-    <sheet name="HP" sheetId="2" r:id="rId6"/>
+    <sheet name="魔法" sheetId="7" r:id="rId4"/>
+    <sheet name="補助状態" sheetId="5" r:id="rId5"/>
+    <sheet name="キャラクター" sheetId="1" r:id="rId6"/>
+    <sheet name="HP" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="77">
   <si>
     <t>HP</t>
     <phoneticPr fontId="1"/>
@@ -681,6 +682,93 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>補助</t>
+    <rPh sb="0" eb="2">
+      <t>ホジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回復</t>
+    <rPh sb="0" eb="2">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>蘇生</t>
+    <rPh sb="0" eb="2">
+      <t>ソセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>妨害</t>
+    <rPh sb="0" eb="2">
+      <t>ボウガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>種類</t>
+    <rPh sb="0" eb="2">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>範囲</t>
+    <rPh sb="0" eb="2">
+      <t>ハンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全体</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単体</t>
+    <rPh sb="0" eb="2">
+      <t>タンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>味方死亡</t>
+    <rPh sb="0" eb="2">
+      <t>ミカタ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループ（敵のみ）</t>
+    <rPh sb="5" eb="6">
+      <t>テキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -725,8 +813,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1246,7 +1337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B5F9C9-3FEE-411C-8E07-9E53E3B56BA2}">
   <dimension ref="A3:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -1312,6 +1403,93 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A28F5A5-05BC-48DC-AE84-1FFA4975BB39}">
+  <dimension ref="A2:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A8:E8"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE88CEC-67C4-4A5A-9C7A-987AD58838F3}">
   <dimension ref="A3:E7"/>
   <sheetViews>
@@ -1397,7 +1575,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:A21"/>
   <sheetViews>
@@ -1511,7 +1689,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450C167B-732F-41ED-9A70-03A47336A36D}">
   <dimension ref="A3:B3"/>
   <sheetViews>
